--- a/results/SpatialBasedAttacksMadry.xlsx
+++ b/results/SpatialBasedAttacksMadry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\bandlimited-cnns\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9175F2-30BC-4C80-B29F-88F51F438655}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AED16A-7E8B-4260-8BE3-B32BECA09E2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="12192" activeTab="2" xr2:uid="{9AF27789-CBEA-4917-B6CE-1CC8C56D8CD0}"/>
   </bookViews>
@@ -17,23 +17,17 @@
     <sheet name="rotations" sheetId="2" r:id="rId2"/>
     <sheet name="translations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
   <si>
     <t>ssh://ady@skr-compute1.cs.uchicago.edu:22/home/ady/anaconda3/bin/python3.6 -u /home/ady/code/bandlimited-cnns/cnns/nnlib/pytorch_experiments/robustness/pytorch_resnet18_full_cifar10_attack.py</t>
   </si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t>angle</t>
+  </si>
+  <si>
+    <t>Limits of the horizontal and vertical translations (in pixels)</t>
   </si>
 </sst>
 </file>
@@ -285,67 +282,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81499999999999995</c:v>
+                  <c:v>81.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80500000000000005</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77500000000000002</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76500000000000001</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61499999999999999</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,67 +459,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.84499999999999997</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76500000000000001</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.745</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68500000000000005</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65500000000000003</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61499999999999999</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>57.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>57.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.54</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,49 +981,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86499999999999999</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1161,40 +1158,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.84499999999999997</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>55.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3048,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4652C-4218-4235-B2AB-0B8F6DAB5F40}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +4976,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5003,12 +5000,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>data!F34</f>
-        <v>0.94</v>
+        <f>data!F34*100</f>
+        <v>94</v>
       </c>
       <c r="C2">
-        <f>data!F11</f>
-        <v>0.84499999999999997</v>
+        <f>data!F11*100</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5016,12 +5013,12 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>data!F35</f>
-        <v>0.86</v>
+        <f>data!F35*100</f>
+        <v>86</v>
       </c>
       <c r="C3">
-        <f>data!F12</f>
-        <v>0.76500000000000001</v>
+        <f>data!F12*100</f>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5029,12 +5026,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>data!F36</f>
-        <v>0.85</v>
+        <f>data!F36*100</f>
+        <v>85</v>
       </c>
       <c r="C4">
-        <f>data!F13</f>
-        <v>0.745</v>
+        <f>data!F13*100</f>
+        <v>74.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5042,12 +5039,12 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>data!F37</f>
-        <v>0.83</v>
+        <f>data!F37*100</f>
+        <v>83</v>
       </c>
       <c r="C5">
-        <f>data!F14</f>
-        <v>0.72499999999999998</v>
+        <f>data!F14*100</f>
+        <v>72.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5055,12 +5052,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>data!F38</f>
-        <v>0.83</v>
+        <f>data!F38*100</f>
+        <v>83</v>
       </c>
       <c r="C6">
-        <f>data!F15</f>
-        <v>0.71499999999999997</v>
+        <f>data!F15*100</f>
+        <v>71.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5068,12 +5065,12 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>data!F39</f>
-        <v>0.81499999999999995</v>
+        <f>data!F39*100</f>
+        <v>81.5</v>
       </c>
       <c r="C7">
-        <f>data!F16</f>
-        <v>0.7</v>
+        <f>data!F16*100</f>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5081,12 +5078,12 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>data!F40</f>
-        <v>0.80500000000000005</v>
+        <f>data!F40*100</f>
+        <v>80.5</v>
       </c>
       <c r="C8">
-        <f>data!F17</f>
-        <v>0.68500000000000005</v>
+        <f>data!F17*100</f>
+        <v>68.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5094,12 +5091,12 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>data!F41</f>
-        <v>0.78500000000000003</v>
+        <f>data!F41*100</f>
+        <v>78.5</v>
       </c>
       <c r="C9">
-        <f>data!F18</f>
-        <v>0.66</v>
+        <f>data!F18*100</f>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5107,12 +5104,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>data!F42</f>
-        <v>0.78500000000000003</v>
+        <f>data!F42*100</f>
+        <v>78.5</v>
       </c>
       <c r="C10">
-        <f>data!F19</f>
-        <v>0.65</v>
+        <f>data!F19*100</f>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5120,12 +5117,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>data!F43</f>
-        <v>0.79</v>
+        <f>data!F43*100</f>
+        <v>79</v>
       </c>
       <c r="C11">
-        <f>data!F20</f>
-        <v>0.65500000000000003</v>
+        <f>data!F20*100</f>
+        <v>65.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5133,12 +5130,12 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>data!F44</f>
-        <v>0.77500000000000002</v>
+        <f>data!F44*100</f>
+        <v>77.5</v>
       </c>
       <c r="C12">
-        <f>data!F21</f>
-        <v>0.64</v>
+        <f>data!F21*100</f>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5146,12 +5143,12 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>data!F45</f>
-        <v>0.76500000000000001</v>
+        <f>data!F45*100</f>
+        <v>76.5</v>
       </c>
       <c r="C13">
-        <f>data!F22</f>
-        <v>0.625</v>
+        <f>data!F22*100</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5159,12 +5156,12 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>data!F46</f>
-        <v>0.76</v>
+        <f>data!F46*100</f>
+        <v>76</v>
       </c>
       <c r="C14">
-        <f>data!F23</f>
-        <v>0.61499999999999999</v>
+        <f>data!F23*100</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5172,12 +5169,12 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>data!F47</f>
-        <v>0.72499999999999998</v>
+        <f>data!F47*100</f>
+        <v>72.5</v>
       </c>
       <c r="C15">
-        <f>data!F24</f>
-        <v>0.58499999999999996</v>
+        <f>data!F24*100</f>
+        <v>58.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5185,12 +5182,12 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>data!F48</f>
-        <v>0.69499999999999995</v>
+        <f>data!F48*100</f>
+        <v>69.5</v>
       </c>
       <c r="C16">
-        <f>data!F25</f>
-        <v>0.57999999999999996</v>
+        <f>data!F25*100</f>
+        <v>57.999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5198,12 +5195,12 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>data!F49</f>
-        <v>0.71</v>
+        <f>data!F49*100</f>
+        <v>71</v>
       </c>
       <c r="C17">
-        <f>data!F26</f>
-        <v>0.57999999999999996</v>
+        <f>data!F26*100</f>
+        <v>57.999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5211,12 +5208,12 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>data!F50</f>
-        <v>0.72</v>
+        <f>data!F50*100</f>
+        <v>72</v>
       </c>
       <c r="C18">
-        <f>data!F27</f>
-        <v>0.53500000000000003</v>
+        <f>data!F27*100</f>
+        <v>53.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5224,12 +5221,12 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>data!F51</f>
-        <v>0.69</v>
+        <f>data!F51*100</f>
+        <v>69</v>
       </c>
       <c r="C19">
-        <f>data!F28</f>
-        <v>0.53500000000000003</v>
+        <f>data!F28*100</f>
+        <v>53.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5237,12 +5234,12 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>data!F52</f>
-        <v>0.66500000000000004</v>
+        <f>data!F52*100</f>
+        <v>66.5</v>
       </c>
       <c r="C20">
-        <f>data!F29</f>
-        <v>0.53500000000000003</v>
+        <f>data!F29*100</f>
+        <v>53.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5250,12 +5247,12 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>data!F53</f>
-        <v>0.64</v>
+        <f>data!F53*100</f>
+        <v>64</v>
       </c>
       <c r="C21">
-        <f>data!F30</f>
-        <v>0.54</v>
+        <f>data!F30*100</f>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5263,12 +5260,12 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>data!F54</f>
-        <v>0.61499999999999999</v>
+        <f>data!F54*100</f>
+        <v>61.5</v>
       </c>
       <c r="C22">
-        <f>data!F31</f>
-        <v>0.52</v>
+        <f>data!F31*100</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5279,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C22" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5292,7 +5289,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -5306,12 +5303,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>data!F80</f>
-        <v>0.94</v>
+        <f>data!F80*100</f>
+        <v>94</v>
       </c>
       <c r="C2">
-        <f>data!F57</f>
-        <v>0.84499999999999997</v>
+        <f>data!F57*100</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5319,12 +5316,12 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>data!F81</f>
-        <v>0.86499999999999999</v>
+        <f>data!F81*100</f>
+        <v>86.5</v>
       </c>
       <c r="C3">
-        <f>data!F58</f>
-        <v>0.71499999999999997</v>
+        <f>data!F58*100</f>
+        <v>71.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5332,12 +5329,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>data!F82</f>
-        <v>0.82</v>
+        <f>data!F82*100</f>
+        <v>82</v>
       </c>
       <c r="C4">
-        <f>data!F59</f>
-        <v>0.625</v>
+        <f>data!F59*100</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5345,12 +5342,12 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>data!F83</f>
-        <v>0.76</v>
+        <f>data!F83*100</f>
+        <v>76</v>
       </c>
       <c r="C5">
-        <f>data!F60</f>
-        <v>0.55000000000000004</v>
+        <f>data!F60*100</f>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5358,12 +5355,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>data!F84</f>
-        <v>0.71499999999999997</v>
+        <f>data!F84*100</f>
+        <v>71.5</v>
       </c>
       <c r="C6">
-        <f>data!F61</f>
-        <v>0.47</v>
+        <f>data!F61*100</f>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5371,12 +5368,12 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>data!F85</f>
-        <v>0.63</v>
+        <f>data!F85*100</f>
+        <v>63</v>
       </c>
       <c r="C7">
-        <f>data!F62</f>
-        <v>0.32</v>
+        <f>data!F62*100</f>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5384,12 +5381,12 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>data!F86</f>
-        <v>0.5</v>
+        <f>data!F86*100</f>
+        <v>50</v>
       </c>
       <c r="C8">
-        <f>data!F63</f>
-        <v>0.21</v>
+        <f>data!F63*100</f>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5397,12 +5394,12 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>data!F87</f>
-        <v>0.33500000000000002</v>
+        <f>data!F87*100</f>
+        <v>33.5</v>
       </c>
       <c r="C9">
-        <f>data!F64</f>
-        <v>0.13500000000000001</v>
+        <f>data!F64*100</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5410,12 +5407,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>data!F88</f>
-        <v>0.23</v>
+        <f>data!F88*100</f>
+        <v>23</v>
       </c>
       <c r="C10">
-        <f>data!F65</f>
-        <v>7.0000000000000007E-2</v>
+        <f>data!F65*100</f>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5423,12 +5420,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>data!F89</f>
-        <v>0.125</v>
+        <f>data!F89*100</f>
+        <v>12.5</v>
       </c>
       <c r="C11">
-        <f>data!F66</f>
-        <v>4.4999999999999998E-2</v>
+        <f>data!F66*100</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5436,12 +5433,12 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>data!F90</f>
-        <v>5.5E-2</v>
+        <f>data!F90*100</f>
+        <v>5.5</v>
       </c>
       <c r="C12">
-        <f>data!F67</f>
-        <v>0.02</v>
+        <f>data!F67*100</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5449,12 +5446,12 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>data!F91</f>
-        <v>0.02</v>
+        <f>data!F91*100</f>
+        <v>2</v>
       </c>
       <c r="C13">
-        <f>data!F68</f>
-        <v>0.01</v>
+        <f>data!F68*100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5462,11 +5459,11 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>data!F92</f>
-        <v>5.0000000000000001E-3</v>
+        <f>data!F92*100</f>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <f>data!F69</f>
+        <f>data!F69*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5475,11 +5472,11 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>data!F93</f>
+        <f>data!F93*100</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>data!F70</f>
+        <f>data!F70*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5488,11 +5485,11 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>data!F94</f>
-        <v>0.01</v>
+        <f>data!F94*100</f>
+        <v>1</v>
       </c>
       <c r="C16">
-        <f>data!F71</f>
+        <f>data!F71*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5501,11 +5498,11 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>data!F95</f>
+        <f>data!F95*100</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>data!F72</f>
+        <f>data!F72*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5514,11 +5511,11 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>data!F96</f>
+        <f>data!F96*100</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>data!F73</f>
+        <f>data!F73*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5527,11 +5524,11 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>data!F97</f>
+        <f>data!F97*100</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>data!F74</f>
+        <f>data!F74*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5540,11 +5537,11 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>data!F98</f>
+        <f>data!F98*100</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>data!F75</f>
+        <f>data!F75*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5553,11 +5550,11 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>data!F99</f>
+        <f>data!F99*100</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>data!F76</f>
+        <f>data!F76*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5566,11 +5563,11 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>data!F100</f>
+        <f>data!F100*100</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>data!F77</f>
+        <f>data!F77*100</f>
         <v>0</v>
       </c>
     </row>
